--- a/Data Files/test/Auto_Type1_1_Record.xlsx
+++ b/Data Files/test/Auto_Type1_1_Record.xlsx
@@ -265,7 +265,7 @@
     <t xml:space="preserve">ZXcv10001</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-13</t>
+    <t xml:space="preserve">2023-07-29</t>
   </si>
   <si>
     <t xml:space="preserve">2023-08-20</t>
@@ -432,10 +432,10 @@
   <dimension ref="A1:BW1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="43.16"/>
